--- a/posesiones/1463367.xlsx
+++ b/posesiones/1463367.xlsx
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>21</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>7</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>26</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>10</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>5</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>23</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>11</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>20</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>16</v>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>5</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>5</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>26</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>19</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>21</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>13</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R64">
         <v>23</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R66">
         <v>18</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>17</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>26</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>5</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>13</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>18</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R86">
         <v>21</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R87">
         <v>11</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R89">
         <v>7</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R95">
         <v>27</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R103">
         <v>15</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R105">
         <v>6</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>16</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>13</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>5</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R112">
         <v>7</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R113">
         <v>4</v>
@@ -7400,10 +7400,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7444,10 +7444,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>16</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>25</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7700,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R120">
         <v>17</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>24</v>
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8529,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R137">
         <v>14</v>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R138">
         <v>12</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R140">
         <v>9</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R142">
         <v>10</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R152">
         <v>17</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R154">
         <v>6</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R156">
         <v>28</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R158">
         <v>5</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>24</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>18</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10246,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>15</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R178">
         <v>5</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10734,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R182">
         <v>20</v>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10837,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R184">
         <v>9</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10937,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R186">
         <v>20</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R188">
         <v>8</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R192">
         <v>17</v>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R194">
         <v>14</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11484,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R198">
         <v>14</v>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R199">
         <v>17</v>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11690,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R201">
         <v>15</v>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R203">
         <v>10</v>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R206">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R207">
         <v>13</v>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R209">
         <v>11</v>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R211">
         <v>25</v>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12390,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R215">
         <v>22</v>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12490,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R217">
         <v>17</v>
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R220">
         <v>19</v>
@@ -12696,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R222">
         <v>8</v>
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R223">
         <v>23</v>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13081,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R232">
         <v>16</v>
@@ -13269,10 +13269,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13595,10 +13595,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13648,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R241">
         <v>1</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R246">
         <v>7</v>
@@ -13942,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R247">
         <v>20</v>
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14042,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R249">
         <v>10</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R251">
         <v>8</v>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14292,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R255">
         <v>17</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14539,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R259">
         <v>25</v>
@@ -14592,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R260">
         <v>16</v>
@@ -14642,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14789,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R265">
         <v>20</v>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14939,7 +14939,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R267">
         <v>22</v>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R268">
         <v>26</v>
@@ -15045,7 +15045,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R269">
         <v>10</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15236,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15568,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R280">
         <v>17</v>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15862,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R286">
         <v>33</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R288">
         <v>17</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R290">
         <v>15</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R293">
         <v>-35</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16497,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R300">
         <v>52</v>
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R302">
         <v>22</v>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16753,7 +16753,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R304">
         <v>10</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17088,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R311">
         <v>21</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R321">
         <v>36</v>
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R323">
         <v>14</v>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17770,7 +17770,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R325">
         <v>8</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18014,7 +18014,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R330">
         <v>13</v>
@@ -18067,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R331">
         <v>15</v>
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R333">
         <v>12</v>
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R334">
         <v>19</v>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18655,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R343">
         <v>13</v>
@@ -18705,7 +18705,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R344">
         <v>25</v>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R345">
         <v>11</v>
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18861,7 +18861,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R347">
         <v>19</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R349">
         <v>21</v>
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19067,7 +19067,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R351">
         <v>15</v>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19352,7 +19352,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19402,7 +19402,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R358">
         <v>0</v>
@@ -19455,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19505,7 +19505,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R360">
         <v>19</v>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19605,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19652,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19699,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19749,7 +19749,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R365">
         <v>21</v>
@@ -19802,7 +19802,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R366">
         <v>3</v>
@@ -19858,7 +19858,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R367">
         <v>2</v>
@@ -19902,10 +19902,10 @@
         <v>1</v>
       </c>
       <c r="P368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20134,10 +20134,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20187,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R374">
         <v>19</v>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20290,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R376">
         <v>19</v>
@@ -20343,7 +20343,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R377">
         <v>9</v>
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>14</v>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20637,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20787,7 +20787,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R386">
         <v>15</v>
@@ -20840,7 +20840,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R387">
         <v>7</v>
@@ -20890,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20937,7 +20937,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20987,7 +20987,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R390">
         <v>0</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21084,7 +21084,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21178,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21319,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21366,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21460,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21507,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21604,7 +21604,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R403">
         <v>16</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21704,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21754,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R406">
         <v>21</v>
@@ -21807,7 +21807,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R407">
         <v>16</v>
@@ -21857,7 +21857,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21951,7 +21951,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21998,7 +21998,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22048,7 +22048,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R412">
         <v>3</v>
@@ -22101,7 +22101,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R413">
         <v>6</v>
@@ -22154,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22204,7 +22204,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R415">
         <v>14</v>
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R416">
         <v>12</v>
@@ -22310,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22360,7 +22360,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R418">
         <v>16</v>
@@ -22413,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R419">
         <v>7</v>
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22701,7 +22701,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R425">
         <v>12</v>
@@ -22751,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22851,7 +22851,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R428">
         <v>18</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23186,7 +23186,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R435">
         <v>6</v>
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23280,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23327,7 +23327,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23471,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R441">
         <v>7</v>
@@ -23524,7 +23524,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R442">
         <v>20</v>
@@ -23577,7 +23577,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23627,7 +23627,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R444">
         <v>8</v>
@@ -23677,7 +23677,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23727,7 +23727,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R446">
         <v>4</v>
@@ -23780,7 +23780,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R447">
         <v>12</v>
@@ -23833,7 +23833,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R448">
         <v>24</v>
@@ -23883,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R452">
         <v>28</v>
@@ -24083,7 +24083,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R453">
         <v>23</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24183,7 +24183,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R455">
         <v>20</v>
@@ -24236,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24286,7 +24286,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24339,7 +24339,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R458">
         <v>12</v>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24439,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R460">
         <v>15</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24683,7 +24683,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R465">
         <v>16</v>
@@ -24736,7 +24736,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R466">
         <v>22</v>
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24977,7 +24977,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R471">
         <v>9</v>
@@ -25030,7 +25030,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R472">
         <v>8</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25124,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25218,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25315,7 +25315,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R478">
         <v>2</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25418,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R480">
         <v>7</v>
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25521,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R482">
         <v>19</v>
@@ -25574,7 +25574,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R483">
         <v>10</v>
@@ -25627,7 +25627,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25674,7 +25674,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25771,7 +25771,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25915,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R490">
         <v>8</v>
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26059,7 +26059,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26159,7 +26159,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R495">
         <v>13</v>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26259,7 +26259,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R497">
         <v>6</v>
@@ -26309,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26359,7 +26359,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R499">
         <v>4</v>
@@ -26409,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26456,7 +26456,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26503,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26553,7 +26553,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R503">
         <v>14</v>
@@ -26606,7 +26606,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R504">
         <v>7</v>
@@ -26659,7 +26659,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26709,7 +26709,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R506">
         <v>7</v>
@@ -26759,7 +26759,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26809,7 +26809,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R508">
         <v>6</v>
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26900,10 +26900,10 @@
         <v>1</v>
       </c>
       <c r="P510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q510">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
